--- a/03補足資料/メインページ疑問点補足資料_20200213-.xlsx
+++ b/03補足資料/メインページ疑問点補足資料_20200213-.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Git\Project_WebAniMatchApp20200126\03補足資料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114BDED5-13E9-4EEB-B32A-6B87101BF1C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FD1EE9-C9F2-4C22-98C1-71324AE191CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23310" windowHeight="13740" activeTab="1" xr2:uid="{19EE8CF6-4547-4DFC-B168-E8C562623B71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="2" xr2:uid="{19EE8CF6-4547-4DFC-B168-E8C562623B71}"/>
   </bookViews>
   <sheets>
     <sheet name="20200213_01" sheetId="1" r:id="rId1"/>
     <sheet name="20200217_01" sheetId="2" r:id="rId2"/>
+    <sheet name="20200226_01" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>以下吹き出しの条件をみたしながら、オレンジ枠の高さを調節したいです。</t>
     <rPh sb="0" eb="2">
@@ -67,6 +68,198 @@
   </si>
   <si>
     <t>▼</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー文字重なり</t>
+    <rPh sb="4" eb="6">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>解決策</t>
+    <rPh sb="0" eb="2">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1420pxより小さい場合、以下のように文字が重なってしまう</t>
+    <rPh sb="8" eb="9">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>blockの幅崩れ</t>
+    <rPh sb="6" eb="7">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>widthが768px以上992pxより小さい場合、以下のようにblockの幅が崩れる</t>
+    <rPh sb="11" eb="13">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘッダー部分でwidthの幅がモバイル端末の場合、以下に似たデザインができないか</t>
+    <rPh sb="4" eb="6">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハバ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在のデザイン</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>希望のデザイン</t>
+    <rPh sb="0" eb="2">
+      <t>キボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案1</t>
+    <rPh sb="0" eb="1">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メディアクエリで調整</t>
+    <rPh sb="8" eb="10">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>案2</t>
+    <rPh sb="0" eb="1">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像加工で調整</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カコウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際に修正してみて難しそうであれば、案2にシフト</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加工ソフトは？</t>
+    <rPh sb="0" eb="2">
+      <t>カコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メディアクエリを使用して、「position」、「padding」のプロパティーを設定し、スタイリング</t>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メディアクエリを使用し、スタイリング</t>
+    <rPh sb="8" eb="10">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「margin-left」プロパティーを設定</t>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2378,6 +2571,187 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541996</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>18332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{444C483B-306E-4569-99DB-8FA542C157DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="1419225"/>
+          <a:ext cx="7428571" cy="5742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542006</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>46813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{352B2160-213C-48B7-B2FB-29127F75D519}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="10696575"/>
+          <a:ext cx="7352381" cy="6495238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>456714</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>133126</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE78ED98-5DB3-4DEB-BEB2-F99EC1E2F3DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="18345150"/>
+          <a:ext cx="3885714" cy="1790476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>456720</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>75894</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2D1F864-2962-4ECE-8135-5F19E0D13F61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="21440775"/>
+          <a:ext cx="3838095" cy="2447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2706,7 +3080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA984CB-861B-4F5D-97D4-A3E19633FB63}">
   <dimension ref="A2:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -2745,4 +3119,174 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E571FD7-C478-4C53-BAC7-77352D7727E6}">
+  <dimension ref="A2:B106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="3.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>11</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>15</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>2</v>
+      </c>
+      <c r="B90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106" t="s">
+        <v>15</v>
+      </c>
+      <c r="B106" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>